--- a/Tools/Luban/Datas/__beans__.xlsx
+++ b/Tools/Luban/Datas/__beans__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\MillionDollars\Tools\Luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\NovaDrift\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0ECACE-21C1-4FBF-BA84-FA416719A0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49782A3B-4B9C-4605-8CFA-9100743FF2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -101,66 +101,6 @@
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobs.MobInventory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_min_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_max_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品最小数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品最大数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Audios.SoundEvent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>streams</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array,string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +516,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M8" sqref="B4:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -693,28 +633,18 @@
     </row>
     <row r="4" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
@@ -727,16 +657,10 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
@@ -749,42 +673,26 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
@@ -797,16 +705,10 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="18.149999999999999" x14ac:dyDescent="0.45">
